--- a/ig/carecommunication/StructureDefinition-medcom-careCommunication-communication.xlsx
+++ b/ig/carecommunication/StructureDefinition-medcom-careCommunication-communication.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:20:03+01:00</t>
+    <t>2025-05-23T11:28:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1994,17 +1994,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.55078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.58203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="165.29296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="166.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2013,25 +2013,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="85.18359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.94921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="85.26953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="48.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="50.6484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/carecommunication/StructureDefinition-medcom-careCommunication-communication.xlsx
+++ b/ig/carecommunication/StructureDefinition-medcom-careCommunication-communication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$97</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="549">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T11:28:08+00:00</t>
+    <t>2025-10-27T14:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}medcom-careCommunication-5:Priority must not be present when Communication.category is other than 'regarding-referral' {where(category.coding.code != 'regarding-referral').priority.empty()}medcom-careCommunication-6:There shall exist a Communication.topic when Communication.category = 'other' {iif(category.coding.code != 'other', true, category.coding.code = 'other' and topic.exists())}medcom-careCommunication-7:There shall exist a practitioner role when using a PractitionerRole as author in a message segment. {payload.where(extension('http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitioner-extension').exists()).extension.value.reference.resolve().code.coding.code.exists()}medcom-careCommunication-8:There shall exist a practitioner name when using a Practitioner as author in a message segment. {payload.where(extension('http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitioner-extension').exists()).extension.value.reference.resolve().practitioner.resolve().name.exists()}medcom-careCommunication-9:An episodeOfCare-identifier must be included when an Encounter instance is included. {iif(encounter.exists().not(), true, encounter.reference.resolve().episodeOfCare.identifier.exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}medcom-careCommunication-5:Priority must not be present when Communication.category is other than 'regarding-referral' {where(category.coding.code != 'regarding-referral').priority.empty()}medcom-careCommunication-6:There shall exist a Communication.topic when Communication.category = 'other' {iif(category.coding.code != 'other', true, category.coding.code = 'other' and topic.exists())}medcom-careCommunication-7:There shall exist a practitioner role when using a PractitionerRole as author in a message segment. {payload.extension('http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitioner-extension').value.resolve().all(code.coding.code.exists() xor code.text.exists())}medcom-careCommunication-8:There shall exist a practitioner name when using a Practitioner as author in a message segment. {payload.where(extension('http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitioner-extension').exists()).extension.value.reference.resolve().practitioner.resolve().name.exists()}medcom-careCommunication-9:An episodeOfCare-identifier must be included when an Encounter instance is included. {iif(encounter.exists().not(), true, encounter.reference.resolve().episodeOfCare.identifier.exists())}medcom-careCommunication-15:If an Encounter resource is present in the bundle, there must be a reference to it in Communication.encounter. If no Encounter is present, Communication.encounter must not be populated. {iif(encounter.exists(), Communication.encounter.reference.exists(), Communication.encounter.exists().not())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -358,7 +358,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -375,7 +375,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>The narrative text SHALL always be included when exchanging a MedCom FHIR Bundle.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -388,6 +388,109 @@
   </si>
   <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Communication.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Communication.text.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Communication.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Communication.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Limited xhtml content</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>Communication.contained</t>
@@ -413,43 +516,25 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Communication.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Communication.extension:sender</t>
   </si>
   <si>
     <t>sender</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-sender-extension}
+    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-sender-extension|3.0.0}
 </t>
   </si>
   <si>
@@ -466,10 +551,6 @@
     <t>Communication.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -477,9 +558,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -518,37 +596,9 @@
     <t>Communication.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Communication.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Communication.identifier.use</t>
   </si>
   <si>
@@ -562,9 +612,6 @@
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Identifies the purpose for this identifier, if known .</t>
@@ -604,7 +651,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -677,7 +724,7 @@
     <t>Communication.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -699,7 +746,7 @@
     <t>Communication.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Measure|OperationDefinition|Questionnaire)
+    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|ActivityDefinition|4.0.1|Measure|4.0.1|OperationDefinition|4.0.1|Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -737,7 +784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -772,7 +819,7 @@
     <t>Communication.inResponseTo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Communication)
+    <t xml:space="preserve">Reference(Communication|4.0.1)
 </t>
   </si>
   <si>
@@ -831,7 +878,7 @@
     <t>Codes for the reason why a communication did not happen.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/communication-not-done-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/communication-not-done-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -849,7 +896,7 @@
     <t>There may be multiple axes of categorization and one communication may serve multiple purposes.</t>
   </si>
   <si>
-    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-careCommunication-categories</t>
+    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-careCommunication-categories|1.8.1</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -1028,7 +1075,7 @@
     <t>If missing, this communication should be treated with normal priority</t>
   </si>
   <si>
-    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-careCommunication-requestPriority</t>
+    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-careCommunication-requestPriority|1.8.1</t>
   </si>
   <si>
     <t>FiveWs.grade</t>
@@ -1046,7 +1093,7 @@
     <t>Codes for communication mediums such as phone, fax, email, in person, etc.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationMode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationMode|3.0.0</t>
   </si>
   <si>
     <t>Communication.subject</t>
@@ -1056,7 +1103,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-patient) &lt;&lt;bundled&gt;&gt;
+    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-patient|3.0.0) &lt;&lt;bundled&gt;&gt;
 </t>
   </si>
   <si>
@@ -1087,7 +1134,7 @@
     <t>Codes describing the purpose or content of the communication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/communication-topic</t>
+    <t>http://hl7.org/fhir/ValueSet/communication-topic|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.context</t>
@@ -1120,7 +1167,7 @@
     <t>Communication.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-encounter) &lt;&lt;bundled&gt;&gt;
+    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-encounter|3.0.0) &lt;&lt;bundled&gt;&gt;
 </t>
   </si>
   <si>
@@ -1170,7 +1217,7 @@
     <t>Communication.recipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitionerrole|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-careteam) &lt;&lt;bundled&gt;&gt;
+    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitionerrole|3.0.0|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-careteam|3.0.0) &lt;&lt;bundled&gt;&gt;
 </t>
   </si>
   <si>
@@ -1189,7 +1236,7 @@
     <t>Communication.sender</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|HealthcareService)
+    <t xml:space="preserve">Reference(Device|4.0.1|Organization|4.0.1|Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|HealthcareService|4.0.1)
 </t>
   </si>
   <si>
@@ -1214,7 +1261,7 @@
     <t>Codes for describing reasons for the occurrence of a communication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1229,7 +1276,7 @@
     <t>Communication.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1274,7 +1321,7 @@
     <t>date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-datetime-extension}
+    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-datetime-extension|3.0.0}
 </t>
   </si>
   <si>
@@ -1290,7 +1337,7 @@
     <t>author</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitioner-extension}
+    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitioner-extension|3.0.0}
 </t>
   </si>
   <si>
@@ -1306,7 +1353,7 @@
     <t>authorContact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-contact-extension}
+    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-contact-extension|3.0.0}
 </t>
   </si>
   <si>
@@ -1322,7 +1369,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-identifier-extension}
+    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-identifier-extension|3.0.0}
 </t>
   </si>
   <si>
@@ -1353,7 +1400,7 @@
   </si>
   <si>
     <t>string
-AttachmentReference(Resource)</t>
+AttachmentReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Message part content</t>
@@ -1396,6 +1443,10 @@
   </si>
   <si>
     <t>Communication.payload:string.content[x]</t>
+  </si>
+  <si>
+    <t>Line breaks must be represented as '
+' in FHIR JSON and as '&amp;#xA;' in FHIR XML.</t>
   </si>
   <si>
     <t>Communication.payload:attachment</t>
@@ -1468,7 +1519,7 @@
     <t>text/plain; charset=UTF-8, image/png</t>
   </si>
   <si>
-    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-core-attachmentMimeTypes</t>
+    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-core-attachmentMimeTypes|1.8.1</t>
   </si>
   <si>
     <t>Attachment.contentType</t>
@@ -1618,7 +1669,7 @@
     <t>Communication.payload.content[x].title</t>
   </si>
   <si>
-    <t>Label to display in place of the data</t>
+    <t>Note: it is not allowed for the system to automatically include '.filetype' in the title.</t>
   </si>
   <si>
     <t>A label or set of text to display in place of the data.</t>
@@ -1985,7 +2036,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM93"/>
+  <dimension ref="A1:AM97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1994,17 +2045,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.58203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.70703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="166.4140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="151.7265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2013,25 +2064,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="85.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.6328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.7421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="50.6484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="43.421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2281,7 +2332,7 @@
         <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>75</v>
@@ -2723,7 +2774,7 @@
         <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>75</v>
@@ -2824,14 +2875,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -2843,17 +2894,15 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>75</v>
@@ -2902,13 +2951,13 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
@@ -2923,19 +2972,19 @@
         <v>75</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2954,15 +3003,17 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -3001,15 +3052,17 @@
       <c r="AB9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AC9" s="2"/>
+      <c r="AC9" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3021,7 +3074,7 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
@@ -3030,25 +3083,23 @@
         <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C10" t="s" s="2">
         <v>138</v>
       </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>85</v>
@@ -3060,16 +3111,16 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3096,13 +3147,13 @@
         <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>75</v>
@@ -3120,19 +3171,19 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -3141,51 +3192,49 @@
         <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -3233,19 +3282,19 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>
@@ -3254,51 +3303,49 @@
         <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
@@ -3346,7 +3393,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3358,24 +3405,24 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3386,7 +3433,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -3398,7 +3445,7 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>161</v>
@@ -3443,16 +3490,14 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>163</v>
@@ -3461,13 +3506,13 @@
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
@@ -3476,29 +3521,31 @@
         <v>75</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>75</v>
@@ -3507,17 +3554,15 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3554,19 +3599,19 @@
         <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3575,10 +3620,10 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
@@ -3587,7 +3632,7 @@
         <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -3599,14 +3644,14 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3615,10 +3660,10 @@
         <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>171</v>
@@ -3627,10 +3672,10 @@
         <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -3655,13 +3700,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3679,19 +3724,19 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -3700,15 +3745,15 @@
         <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3716,13 +3761,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>75</v>
@@ -3731,19 +3776,19 @@
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3768,13 +3813,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3792,36 +3837,36 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3841,23 +3886,19 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3869,7 +3910,7 @@
         <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>75</v>
@@ -3905,7 +3946,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3917,7 +3958,7 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -3926,47 +3967,47 @@
         <v>75</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3980,7 +4021,7 @@
         <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>75</v>
@@ -4004,31 +4045,31 @@
         <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
@@ -4037,15 +4078,15 @@
         <v>75</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4062,22 +4103,26 @@
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -4101,13 +4146,13 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -4125,7 +4170,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4146,15 +4191,15 @@
         <v>75</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4177,18 +4222,20 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
@@ -4212,13 +4259,13 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -4236,7 +4283,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4257,15 +4304,15 @@
         <v>75</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4276,7 +4323,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -4288,16 +4335,20 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -4309,7 +4360,7 @@
         <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>75</v>
@@ -4345,13 +4396,13 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
@@ -4360,21 +4411,21 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4382,13 +4433,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>75</v>
@@ -4397,16 +4448,16 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4420,7 +4471,7 @@
         <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>75</v>
@@ -4456,13 +4507,13 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
@@ -4471,32 +4522,32 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -4508,17 +4559,15 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4567,13 +4616,13 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
@@ -4582,32 +4631,32 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>237</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4619,15 +4668,17 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4676,13 +4727,13 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
@@ -4691,21 +4742,21 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4725,16 +4776,16 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4785,7 +4836,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4800,21 +4851,21 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4822,31 +4873,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4857,7 +4908,7 @@
         <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>75</v>
@@ -4872,13 +4923,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4896,13 +4947,13 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
@@ -4911,32 +4962,32 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -4948,16 +4999,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4983,13 +5034,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -5007,13 +5058,13 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
@@ -5022,7 +5073,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -5033,43 +5084,41 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -5094,11 +5143,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -5116,7 +5167,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5131,10 +5182,10 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -5142,10 +5193,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5156,7 +5207,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -5168,13 +5219,13 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5225,19 +5276,19 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
@@ -5246,47 +5297,47 @@
         <v>75</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5297,7 +5348,7 @@
         <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>75</v>
@@ -5312,71 +5363,71 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5388,20 +5439,18 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
@@ -5425,13 +5474,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -5449,13 +5498,13 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
@@ -5464,21 +5513,21 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5486,13 +5535,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>75</v>
@@ -5501,15 +5550,17 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5534,13 +5585,11 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5558,47 +5607,47 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5610,17 +5659,15 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5657,31 +5704,31 @@
         <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>75</v>
@@ -5690,51 +5737,49 @@
         <v>75</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>164</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>130</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5770,31 +5815,31 @@
         <v>75</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
@@ -5803,15 +5848,15 @@
         <v>75</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>287</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5819,13 +5864,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>75</v>
@@ -5834,18 +5879,20 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>160</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5899,7 +5946,7 @@
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
@@ -5930,33 +5977,31 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>123</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -6004,7 +6049,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>125</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6016,7 +6061,7 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -6025,26 +6070,26 @@
         <v>75</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>299</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -6053,21 +6098,21 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -6103,31 +6148,31 @@
         <v>75</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>304</v>
+        <v>136</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -6136,15 +6181,15 @@
         <v>75</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>305</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6152,13 +6197,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>75</v>
@@ -6167,19 +6212,19 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6228,7 +6273,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6249,15 +6294,15 @@
         <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6280,20 +6325,18 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
@@ -6341,7 +6384,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6362,15 +6405,15 @@
         <v>75</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6378,7 +6421,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>85</v>
@@ -6396,21 +6439,19 @@
         <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q40" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
         <v>75</v>
       </c>
@@ -6430,11 +6471,13 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -6452,7 +6495,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6470,18 +6513,18 @@
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>327</v>
+        <v>75</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>75</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6492,7 +6535,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6501,19 +6544,21 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
@@ -6537,13 +6582,13 @@
         <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>332</v>
+        <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>75</v>
@@ -6561,13 +6606,13 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
@@ -6582,29 +6627,29 @@
         <v>75</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>75</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>334</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>75</v>
@@ -6613,16 +6658,20 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6670,7 +6719,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6685,21 +6734,21 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>338</v>
+        <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>339</v>
+        <v>75</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>75</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6713,27 +6762,29 @@
         <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6757,13 +6808,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>344</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6781,7 +6832,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6799,18 +6850,18 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>346</v>
+        <v>75</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>75</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6824,29 +6875,33 @@
         <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>161</v>
+        <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="R44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6866,13 +6921,11 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>75</v>
+        <v>341</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -6890,7 +6943,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>163</v>
+        <v>336</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6902,28 +6955,28 @@
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6942,17 +6995,15 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>166</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6977,31 +7028,31 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>75</v>
+        <v>347</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>169</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7013,7 +7064,7 @@
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
@@ -7022,29 +7073,29 @@
         <v>75</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>75</v>
@@ -7053,20 +7104,16 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -7114,13 +7161,13 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>277</v>
+        <v>348</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
@@ -7129,21 +7176,21 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>278</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7151,7 +7198,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>85</v>
@@ -7163,23 +7210,21 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>75</v>
       </c>
@@ -7203,13 +7248,13 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
@@ -7227,7 +7272,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7245,18 +7290,18 @@
         <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>320</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7267,7 +7312,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -7279,17 +7324,15 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>352</v>
+        <v>123</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -7338,68 +7381,68 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>351</v>
+        <v>125</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>346</v>
+        <v>75</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>356</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
+        <v>130</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>358</v>
+        <v>131</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>359</v>
+        <v>132</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7437,48 +7480,48 @@
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>346</v>
+        <v>75</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7489,7 +7532,7 @@
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -7498,19 +7541,23 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
@@ -7558,13 +7605,13 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
@@ -7573,21 +7620,21 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>365</v>
+        <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>366</v>
+        <v>75</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7595,31 +7642,35 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>362</v>
+        <v>122</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7667,7 +7718,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7682,21 +7733,21 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>370</v>
+        <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>366</v>
+        <v>75</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>75</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7710,7 +7761,7 @@
         <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>75</v>
@@ -7719,15 +7770,17 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7776,7 +7829,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7791,10 +7844,10 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>75</v>
@@ -7802,10 +7855,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7819,24 +7872,26 @@
         <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>75</v>
@@ -7885,7 +7940,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7903,7 +7958,7 @@
         <v>375</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>75</v>
@@ -7911,10 +7966,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7925,7 +7980,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7934,20 +7989,18 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>181</v>
+        <v>377</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7972,13 +8025,13 @@
         <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>386</v>
+        <v>75</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
@@ -7996,13 +8049,13 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
@@ -8011,21 +8064,21 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>389</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8036,7 +8089,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -8045,16 +8098,16 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8105,13 +8158,13 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
@@ -8120,21 +8173,21 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>395</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8142,13 +8195,13 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>75</v>
@@ -8157,13 +8210,13 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8202,17 +8255,19 @@
         <v>75</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8227,10 +8282,10 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>75</v>
+        <v>390</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>75</v>
+        <v>391</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8238,10 +8293,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8264,13 +8319,13 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>161</v>
+        <v>394</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>162</v>
+        <v>395</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8321,7 +8376,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8333,24 +8388,24 @@
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>75</v>
+        <v>390</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>75</v>
+        <v>391</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8370,18 +8425,20 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>131</v>
+        <v>397</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
@@ -8406,29 +8463,31 @@
         <v>75</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>75</v>
+        <v>401</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>169</v>
+        <v>396</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8440,28 +8499,26 @@
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>75</v>
+        <v>403</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8470,7 +8527,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>75</v>
@@ -8479,16 +8536,16 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8539,7 +8596,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>169</v>
+        <v>405</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8548,40 +8605,38 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>75</v>
+        <v>403</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>75</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -8593,13 +8648,13 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8638,19 +8693,17 @@
         <v>75</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>169</v>
+        <v>411</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8659,10 +8712,10 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
@@ -8676,14 +8729,12 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>75</v>
       </c>
@@ -8704,13 +8755,13 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>122</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>123</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>417</v>
+        <v>124</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8761,19 +8812,19 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
@@ -8782,19 +8833,17 @@
         <v>75</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>75</v>
       </c>
@@ -8803,7 +8852,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -8815,13 +8864,13 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>420</v>
+        <v>129</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>421</v>
+        <v>161</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>422</v>
+        <v>162</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8860,19 +8909,17 @@
         <v>75</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8881,10 +8928,10 @@
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
@@ -8898,46 +8945,44 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D63" t="s" s="2">
-        <v>424</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>130</v>
+        <v>420</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
       </c>
@@ -8985,7 +9030,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>427</v>
+        <v>136</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8994,10 +9039,10 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
@@ -9006,23 +9051,25 @@
         <v>75</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>85</v>
@@ -9037,13 +9084,13 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9094,19 +9141,19 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>428</v>
+        <v>136</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
@@ -9120,26 +9167,26 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>75</v>
@@ -9148,13 +9195,13 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9205,7 +9252,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>396</v>
+        <v>136</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9214,10 +9261,10 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
@@ -9231,12 +9278,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>75</v>
       </c>
@@ -9257,13 +9306,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>160</v>
+        <v>435</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>161</v>
+        <v>436</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>162</v>
+        <v>437</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9314,19 +9363,19 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
@@ -9335,23 +9384,23 @@
         <v>75</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>75</v>
+        <v>439</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>437</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9360,22 +9409,26 @@
         <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>131</v>
+        <v>440</v>
       </c>
       <c r="M67" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>75</v>
       </c>
@@ -9411,17 +9464,19 @@
         <v>75</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>169</v>
+        <v>442</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9433,7 +9488,7 @@
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
@@ -9442,19 +9497,17 @@
         <v>75</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>75</v>
       </c>
@@ -9466,22 +9519,22 @@
         <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9532,19 +9585,19 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>169</v>
+        <v>443</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
@@ -9558,13 +9611,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>75</v>
@@ -9574,7 +9627,7 @@
         <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>86</v>
@@ -9583,16 +9636,16 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9643,7 +9696,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>169</v>
+        <v>411</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9652,10 +9705,10 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
@@ -9669,41 +9722,39 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>415</v>
+        <v>122</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>416</v>
+        <v>123</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>417</v>
+        <v>124</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9754,19 +9805,19 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>
@@ -9775,46 +9826,44 @@
         <v>75</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>452</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>420</v>
+        <v>129</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>421</v>
+        <v>161</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>422</v>
+        <v>162</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9853,19 +9902,17 @@
         <v>75</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9874,10 +9921,10 @@
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>75</v>
@@ -9891,46 +9938,44 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D72" t="s" s="2">
-        <v>424</v>
+        <v>75</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>420</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>75</v>
       </c>
@@ -9978,7 +10023,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>427</v>
+        <v>136</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9987,10 +10032,10 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
@@ -9999,17 +10044,19 @@
         <v>75</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>75</v>
       </c>
@@ -10030,13 +10077,13 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>160</v>
+        <v>425</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10087,19 +10134,19 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>428</v>
+        <v>136</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>75</v>
@@ -10113,23 +10160,23 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>86</v>
@@ -10141,13 +10188,13 @@
         <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10198,7 +10245,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>396</v>
+        <v>136</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10207,10 +10254,10 @@
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
@@ -10224,24 +10271,26 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>75</v>
@@ -10250,13 +10299,13 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>160</v>
+        <v>435</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>161</v>
+        <v>436</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>162</v>
+        <v>437</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10307,19 +10356,19 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
@@ -10328,23 +10377,23 @@
         <v>75</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>75</v>
+        <v>439</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10353,22 +10402,26 @@
         <v>75</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>131</v>
+        <v>440</v>
       </c>
       <c r="M76" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>75</v>
       </c>
@@ -10404,17 +10457,19 @@
         <v>75</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC76" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>169</v>
+        <v>442</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10426,7 +10481,7 @@
         <v>75</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
@@ -10435,19 +10490,17 @@
         <v>75</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>75</v>
       </c>
@@ -10465,16 +10518,16 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>405</v>
+        <v>122</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10525,19 +10578,19 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>169</v>
+        <v>443</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
@@ -10551,13 +10604,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>75</v>
@@ -10567,7 +10620,7 @@
         <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>86</v>
@@ -10579,13 +10632,13 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10636,7 +10689,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>169</v>
+        <v>411</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10645,10 +10698,10 @@
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
@@ -10662,14 +10715,12 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>75</v>
       </c>
@@ -10681,7 +10732,7 @@
         <v>85</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>75</v>
@@ -10690,13 +10741,13 @@
         <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>415</v>
+        <v>122</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>416</v>
+        <v>123</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>417</v>
+        <v>124</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10747,19 +10798,19 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
@@ -10768,46 +10819,44 @@
         <v>75</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>85</v>
+        <v>465</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>420</v>
+        <v>129</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>421</v>
+        <v>161</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>422</v>
+        <v>162</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10846,19 +10895,17 @@
         <v>75</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC80" s="2"/>
       <c r="AD80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -10867,10 +10914,10 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
@@ -10884,46 +10931,44 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D81" t="s" s="2">
-        <v>424</v>
+        <v>75</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>130</v>
+        <v>420</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>75</v>
       </c>
@@ -10971,7 +11016,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>427</v>
+        <v>136</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -10980,10 +11025,10 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>75</v>
@@ -10992,23 +11037,25 @@
         <v>75</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>85</v>
@@ -11023,13 +11070,13 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11080,19 +11127,19 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>428</v>
+        <v>136</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>75</v>
@@ -11106,12 +11153,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>75</v>
       </c>
@@ -11123,7 +11172,7 @@
         <v>85</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>75</v>
@@ -11132,13 +11181,13 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>161</v>
+        <v>431</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>162</v>
+        <v>432</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11189,19 +11238,19 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>75</v>
@@ -11210,29 +11259,31 @@
         <v>75</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="D84" t="s" s="2">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>75</v>
@@ -11241,17 +11292,15 @@
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>130</v>
+        <v>435</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>166</v>
+        <v>436</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>75</v>
@@ -11288,19 +11337,19 @@
         <v>75</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -11309,10 +11358,10 @@
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>75</v>
@@ -11321,48 +11370,50 @@
         <v>75</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>75</v>
+        <v>439</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O85" t="s" s="2">
-        <v>465</v>
+        <v>173</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>75</v>
@@ -11375,7 +11426,7 @@
         <v>75</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>466</v>
+        <v>75</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>75</v>
@@ -11387,11 +11438,13 @@
         <v>75</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y85" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z85" t="s" s="2">
-        <v>467</v>
+        <v>75</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>75</v>
@@ -11409,19 +11462,19 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>75</v>
@@ -11430,15 +11483,15 @@
         <v>75</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>469</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11446,33 +11499,31 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>105</v>
+        <v>472</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>474</v>
-      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>75</v>
       </c>
@@ -11484,7 +11535,7 @@
         <v>75</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>475</v>
+        <v>75</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>75</v>
@@ -11496,13 +11547,13 @@
         <v>75</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>75</v>
@@ -11520,10 +11571,10 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>85</v>
@@ -11541,15 +11592,15 @@
         <v>75</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>477</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11563,7 +11614,7 @@
         <v>85</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>75</v>
@@ -11572,20 +11623,16 @@
         <v>75</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>480</v>
+        <v>122</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>481</v>
+        <v>123</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>75</v>
       </c>
@@ -11633,7 +11680,7 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>485</v>
+        <v>125</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -11645,7 +11692,7 @@
         <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>75</v>
@@ -11654,51 +11701,49 @@
         <v>75</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>486</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>489</v>
+        <v>129</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>490</v>
+        <v>130</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>491</v>
+        <v>131</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>75</v>
       </c>
@@ -11710,7 +11755,7 @@
         <v>75</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>494</v>
+        <v>75</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>75</v>
@@ -11734,31 +11779,31 @@
         <v>75</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>495</v>
+        <v>136</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>75</v>
@@ -11767,15 +11812,15 @@
         <v>75</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>496</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11789,7 +11834,7 @@
         <v>85</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>75</v>
@@ -11798,19 +11843,17 @@
         <v>86</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>499</v>
+        <v>105</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>75</v>
@@ -11823,7 +11866,7 @@
         <v>75</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>75</v>
+        <v>482</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>75</v>
@@ -11835,13 +11878,11 @@
         <v>75</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
-        <v>75</v>
+        <v>483</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>75</v>
@@ -11859,7 +11900,7 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -11880,15 +11921,15 @@
         <v>75</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>505</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11911,19 +11952,17 @@
         <v>86</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>480</v>
+        <v>105</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>75</v>
@@ -11936,7 +11975,7 @@
         <v>75</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>75</v>
+        <v>491</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>75</v>
@@ -11948,13 +11987,13 @@
         <v>75</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>75</v>
@@ -11972,7 +12011,7 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -11993,15 +12032,15 @@
         <v>75</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>513</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12009,7 +12048,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>85</v>
@@ -12021,20 +12060,22 @@
         <v>75</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>160</v>
+        <v>496</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O91" t="s" s="2">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>75</v>
@@ -12047,7 +12088,7 @@
         <v>75</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>519</v>
+        <v>75</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>75</v>
@@ -12083,7 +12124,7 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -12104,15 +12145,15 @@
         <v>75</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>521</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12135,17 +12176,19 @@
         <v>86</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>362</v>
+        <v>505</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="O92" t="s" s="2">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>75</v>
@@ -12158,7 +12201,7 @@
         <v>75</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>75</v>
+        <v>510</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>75</v>
@@ -12194,7 +12237,7 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -12215,15 +12258,15 @@
         <v>75</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12234,7 +12277,7 @@
         <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>75</v>
@@ -12243,19 +12286,23 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>75</v>
       </c>
@@ -12303,13 +12350,13 @@
         <v>75</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>75</v>
@@ -12318,17 +12365,461 @@
         <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AL93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM93" t="s" s="2">
+      <c r="M95" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM93">
+  <autoFilter ref="A1:AM97">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12338,7 +12829,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/carecommunication/StructureDefinition-medcom-careCommunication-communication.xlsx
+++ b/ig/carecommunication/StructureDefinition-medcom-careCommunication-communication.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T14:45:58+00:00</t>
+    <t>2025-10-29T10:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -534,7 +534,7 @@
     <t>sender</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-sender-extension|3.0.0}
+    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-sender-extension|3.0.1}
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
     <t>There may be multiple axes of categorization and one communication may serve multiple purposes.</t>
   </si>
   <si>
-    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-careCommunication-categories|1.8.1</t>
+    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-careCommunication-categories|1.9.0</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -1103,7 +1103,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-patient|3.0.0) &lt;&lt;bundled&gt;&gt;
+    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-patient|3.0.1) &lt;&lt;bundled&gt;&gt;
 </t>
   </si>
   <si>
@@ -1167,7 +1167,7 @@
     <t>Communication.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-encounter|3.0.0) &lt;&lt;bundled&gt;&gt;
+    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-encounter|3.0.1) &lt;&lt;bundled&gt;&gt;
 </t>
   </si>
   <si>
@@ -1217,7 +1217,7 @@
     <t>Communication.recipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitionerrole|3.0.0|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-careteam|3.0.0) &lt;&lt;bundled&gt;&gt;
+    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitionerrole|3.0.1|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-careteam|3.0.1) &lt;&lt;bundled&gt;&gt;
 </t>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
     <t>date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-datetime-extension|3.0.0}
+    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-datetime-extension|3.0.1}
 </t>
   </si>
   <si>
@@ -1337,7 +1337,7 @@
     <t>author</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitioner-extension|3.0.0}
+    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitioner-extension|3.0.1}
 </t>
   </si>
   <si>
@@ -1353,7 +1353,7 @@
     <t>authorContact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-contact-extension|3.0.0}
+    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-contact-extension|3.0.1}
 </t>
   </si>
   <si>
@@ -1369,7 +1369,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-identifier-extension|3.0.0}
+    <t xml:space="preserve">Extension {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-identifier-extension|3.0.1}
 </t>
   </si>
   <si>
